--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema3d-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema3d-Nrp1.xlsx
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.014874</v>
+        <v>0.01606133333333333</v>
       </c>
       <c r="H2">
-        <v>0.044622</v>
+        <v>0.048184</v>
       </c>
       <c r="I2">
-        <v>0.006590185346932158</v>
+        <v>0.009938633312098436</v>
       </c>
       <c r="J2">
-        <v>0.008829579149513378</v>
+        <v>0.0127707462341618</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N2">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O2">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P2">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q2">
-        <v>1.623419318896</v>
+        <v>1.019368684768889</v>
       </c>
       <c r="R2">
-        <v>14.610773870064</v>
+        <v>9.174318162919999</v>
       </c>
       <c r="S2">
-        <v>0.002329987767102554</v>
+        <v>0.002340049214483867</v>
       </c>
       <c r="T2">
-        <v>0.003228058531415413</v>
+        <v>0.003061357921965976</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.014874</v>
+        <v>0.01606133333333333</v>
       </c>
       <c r="H3">
-        <v>0.044622</v>
+        <v>0.048184</v>
       </c>
       <c r="I3">
-        <v>0.006590185346932158</v>
+        <v>0.009938633312098436</v>
       </c>
       <c r="J3">
-        <v>0.008829579149513378</v>
+        <v>0.0127707462341618</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>143.942475</v>
       </c>
       <c r="O3">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P3">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q3">
-        <v>0.7136667910500001</v>
+        <v>0.7706360239333334</v>
       </c>
       <c r="R3">
-        <v>6.42300111945</v>
+        <v>6.9357242154</v>
       </c>
       <c r="S3">
-        <v>0.001024279355049587</v>
+        <v>0.001769061821697041</v>
       </c>
       <c r="T3">
-        <v>0.001419077712468936</v>
+        <v>0.002314366462371314</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.014874</v>
+        <v>0.01606133333333333</v>
       </c>
       <c r="H4">
-        <v>0.044622</v>
+        <v>0.048184</v>
       </c>
       <c r="I4">
-        <v>0.006590185346932158</v>
+        <v>0.009938633312098436</v>
       </c>
       <c r="J4">
-        <v>0.008829579149513378</v>
+        <v>0.0127707462341618</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N4">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O4">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P4">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q4">
-        <v>0.9261656050799999</v>
+        <v>1.036567813663111</v>
       </c>
       <c r="R4">
-        <v>8.33549044572</v>
+        <v>9.329110322968001</v>
       </c>
       <c r="S4">
-        <v>0.001329265030315793</v>
+        <v>0.002379531306351204</v>
       </c>
       <c r="T4">
-        <v>0.001841617102976917</v>
+        <v>0.003113010175245838</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.014874</v>
+        <v>0.01606133333333333</v>
       </c>
       <c r="H5">
-        <v>0.044622</v>
+        <v>0.048184</v>
       </c>
       <c r="I5">
-        <v>0.006590185346932158</v>
+        <v>0.009938633312098436</v>
       </c>
       <c r="J5">
-        <v>0.008829579149513378</v>
+        <v>0.0127707462341618</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N5">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O5">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P5">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q5">
-        <v>0.453716391882</v>
+        <v>0.2311762877346667</v>
       </c>
       <c r="R5">
-        <v>2.722298351292</v>
+        <v>1.387057726408</v>
       </c>
       <c r="S5">
-        <v>0.0006511895174056953</v>
+        <v>0.0005306852158632383</v>
       </c>
       <c r="T5">
-        <v>0.0006014560553805737</v>
+        <v>0.0004628442227048012</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.014874</v>
+        <v>0.01606133333333333</v>
       </c>
       <c r="H6">
-        <v>0.044622</v>
+        <v>0.048184</v>
       </c>
       <c r="I6">
-        <v>0.006590185346932158</v>
+        <v>0.009938633312098436</v>
       </c>
       <c r="J6">
-        <v>0.008829579149513378</v>
+        <v>0.0127707462341618</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.81030666666667</v>
+        <v>79.17795566666666</v>
       </c>
       <c r="N6">
-        <v>176.43092</v>
+        <v>237.533867</v>
       </c>
       <c r="O6">
-        <v>0.1905050633580386</v>
+        <v>0.2937331182295834</v>
       </c>
       <c r="P6">
-        <v>0.1969935053322898</v>
+        <v>0.2990559347000084</v>
       </c>
       <c r="Q6">
-        <v>0.87474450136</v>
+        <v>1.271703538614222</v>
       </c>
       <c r="R6">
-        <v>7.872700512240001</v>
+        <v>11.445331847528</v>
       </c>
       <c r="S6">
-        <v>0.001255463677058528</v>
+        <v>0.002919305753703086</v>
       </c>
       <c r="T6">
-        <v>0.001739369747271539</v>
+        <v>0.003819167451873869</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1.574507</v>
       </c>
       <c r="I7">
-        <v>0.232537603873473</v>
+        <v>0.3247643973172043</v>
       </c>
       <c r="J7">
-        <v>0.3115556043647272</v>
+        <v>0.4173092591090693</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N7">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O7">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P7">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q7">
-        <v>57.28306847602045</v>
+        <v>33.30987733997611</v>
       </c>
       <c r="R7">
-        <v>515.547616284184</v>
+        <v>299.788896059785</v>
       </c>
       <c r="S7">
-        <v>0.08221464858628798</v>
+        <v>0.07646571203198882</v>
       </c>
       <c r="T7">
-        <v>0.1139034725947579</v>
+        <v>0.1000358931936096</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1.574507</v>
       </c>
       <c r="I8">
-        <v>0.232537603873473</v>
+        <v>0.3247643973172043</v>
       </c>
       <c r="J8">
-        <v>0.3115556043647272</v>
+        <v>0.4173092591090693</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>143.942475</v>
       </c>
       <c r="O8">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P8">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q8">
         <v>25.18204827609167</v>
@@ -948,10 +948,10 @@
         <v>226.638434484825</v>
       </c>
       <c r="S8">
-        <v>0.03614214993682623</v>
+        <v>0.05780757557892127</v>
       </c>
       <c r="T8">
-        <v>0.05007278454184766</v>
+        <v>0.07562647757697306</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1.574507</v>
       </c>
       <c r="I9">
-        <v>0.232537603873473</v>
+        <v>0.3247643973172043</v>
       </c>
       <c r="J9">
-        <v>0.3115556043647272</v>
+        <v>0.4173092591090693</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N9">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O9">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P9">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q9">
-        <v>32.68016288731333</v>
+        <v>33.87189271515989</v>
       </c>
       <c r="R9">
-        <v>294.12146598582</v>
+        <v>304.8470344364391</v>
       </c>
       <c r="S9">
-        <v>0.04690370434062634</v>
+        <v>0.07775586706311462</v>
       </c>
       <c r="T9">
-        <v>0.0649822737653372</v>
+        <v>0.101723732193172</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1.574507</v>
       </c>
       <c r="I10">
-        <v>0.232537603873473</v>
+        <v>0.3247643973172043</v>
       </c>
       <c r="J10">
-        <v>0.3115556043647272</v>
+        <v>0.4173092591090693</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N10">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O10">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P10">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q10">
-        <v>16.00958350215033</v>
+        <v>7.554140031384834</v>
       </c>
       <c r="R10">
-        <v>96.05750101290201</v>
+        <v>45.324840188309</v>
       </c>
       <c r="S10">
-        <v>0.02297751005069</v>
+        <v>0.0173411835292458</v>
       </c>
       <c r="T10">
-        <v>0.02122264285305681</v>
+        <v>0.01512434560348391</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>1.574507</v>
       </c>
       <c r="I11">
-        <v>0.232537603873473</v>
+        <v>0.3247643973172043</v>
       </c>
       <c r="J11">
-        <v>0.3115556043647272</v>
+        <v>0.4173092591090693</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>58.81030666666667</v>
+        <v>79.17795566666666</v>
       </c>
       <c r="N11">
-        <v>176.43092</v>
+        <v>237.533867</v>
       </c>
       <c r="O11">
-        <v>0.1905050633580386</v>
+        <v>0.2937331182295834</v>
       </c>
       <c r="P11">
-        <v>0.1969935053322898</v>
+        <v>0.2990559347000084</v>
       </c>
       <c r="Q11">
-        <v>30.86574650627112</v>
+        <v>41.55541514761878</v>
       </c>
       <c r="R11">
-        <v>277.7917185564401</v>
+        <v>373.998736328569</v>
       </c>
       <c r="S11">
-        <v>0.04429959095904246</v>
+        <v>0.09539405911393375</v>
       </c>
       <c r="T11">
-        <v>0.06137443060972768</v>
+        <v>0.1247988105418307</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.717283</v>
+        <v>1.0751535</v>
       </c>
       <c r="H12">
-        <v>3.434565999999999</v>
+        <v>2.150307</v>
       </c>
       <c r="I12">
-        <v>0.7608722107795949</v>
+        <v>0.6652969693706972</v>
       </c>
       <c r="J12">
-        <v>0.6796148164857594</v>
+        <v>0.5699199946567689</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N12">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O12">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P12">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q12">
-        <v>187.4324592047653</v>
+        <v>68.23703776479749</v>
       </c>
       <c r="R12">
-        <v>1124.594755228592</v>
+        <v>409.4222265887849</v>
       </c>
       <c r="S12">
-        <v>0.2690095725866058</v>
+        <v>0.1566440376343545</v>
       </c>
       <c r="T12">
-        <v>0.2484644363320628</v>
+        <v>0.1366191966027912</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.717283</v>
+        <v>1.0751535</v>
       </c>
       <c r="H13">
-        <v>3.434565999999999</v>
+        <v>2.150307</v>
       </c>
       <c r="I13">
-        <v>0.7608722107795949</v>
+        <v>0.6652969693706972</v>
       </c>
       <c r="J13">
-        <v>0.6796148164857594</v>
+        <v>0.5699199946567689</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>143.942475</v>
       </c>
       <c r="O13">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P13">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q13">
-        <v>82.39665509847499</v>
+        <v>51.58675193163749</v>
       </c>
       <c r="R13">
-        <v>494.3799305908499</v>
+        <v>309.520511589825</v>
       </c>
       <c r="S13">
-        <v>0.1182585399810152</v>
+        <v>0.1184218626087881</v>
       </c>
       <c r="T13">
-        <v>0.1092267505401726</v>
+        <v>0.1032832144405253</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.717283</v>
+        <v>1.0751535</v>
       </c>
       <c r="H14">
-        <v>3.434565999999999</v>
+        <v>2.150307</v>
       </c>
       <c r="I14">
-        <v>0.7608722107795949</v>
+        <v>0.6652969693706972</v>
       </c>
       <c r="J14">
-        <v>0.6796148164857594</v>
+        <v>0.5699199946567689</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N14">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O14">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P14">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q14">
-        <v>106.93078181986</v>
+        <v>69.3883558555065</v>
       </c>
       <c r="R14">
-        <v>641.5846909191598</v>
+        <v>416.330135133039</v>
       </c>
       <c r="S14">
-        <v>0.1534707704084843</v>
+        <v>0.1592869881526898</v>
       </c>
       <c r="T14">
-        <v>0.1417497083703782</v>
+        <v>0.1389242813154232</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.717283</v>
+        <v>1.0751535</v>
       </c>
       <c r="H15">
-        <v>3.434565999999999</v>
+        <v>2.150307</v>
       </c>
       <c r="I15">
-        <v>0.7608722107795949</v>
+        <v>0.6652969693706972</v>
       </c>
       <c r="J15">
-        <v>0.6796148164857594</v>
+        <v>0.5699199946567689</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N15">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O15">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P15">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q15">
-        <v>52.38398861101899</v>
+        <v>15.47505364072725</v>
       </c>
       <c r="R15">
-        <v>209.535954444076</v>
+        <v>61.90021456290899</v>
       </c>
       <c r="S15">
-        <v>0.075183319081552</v>
+        <v>0.03552432761291816</v>
       </c>
       <c r="T15">
-        <v>0.04629421626785521</v>
+        <v>0.02065534559172532</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.717283</v>
+        <v>1.0751535</v>
       </c>
       <c r="H16">
-        <v>3.434565999999999</v>
+        <v>2.150307</v>
       </c>
       <c r="I16">
-        <v>0.7608722107795949</v>
+        <v>0.6652969693706972</v>
       </c>
       <c r="J16">
-        <v>0.6796148164857594</v>
+        <v>0.5699199946567689</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>58.81030666666667</v>
+        <v>79.17795566666666</v>
       </c>
       <c r="N16">
-        <v>176.43092</v>
+        <v>237.533867</v>
       </c>
       <c r="O16">
-        <v>0.1905050633580386</v>
+        <v>0.2937331182295834</v>
       </c>
       <c r="P16">
-        <v>0.1969935053322898</v>
+        <v>0.2990559347000084</v>
       </c>
       <c r="Q16">
-        <v>100.9939398634533</v>
+        <v>85.12845615786148</v>
       </c>
       <c r="R16">
-        <v>605.96363918072</v>
+        <v>510.7707369471689</v>
       </c>
       <c r="S16">
-        <v>0.1449500087219376</v>
+        <v>0.1954197533619465</v>
       </c>
       <c r="T16">
-        <v>0.1338797049752906</v>
+        <v>0.1704379567063038</v>
       </c>
     </row>
   </sheetData>
